--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29C5AA-B0FE-4325-B8D2-878234763AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA25FCA-B498-4627-ABD3-37DE42EA23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -208,6 +208,140 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメーター上げ</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各トレーニングを選択することでトレーニングに応じたステータスが上がる
+システムを作成</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見た目の部分の作成</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のアニメーション付け</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算</t>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ数を決める計算式を作成</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の行動パターン決め</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦時の敵の行動パターン決め</t>
+    <rPh sb="0" eb="3">
+      <t>タイセンジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターン処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターンを処理する</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -617,17 +751,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -657,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -672,7 +806,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -687,21 +821,21 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -726,19 +860,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -748,7 +882,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -762,61 +896,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:4" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:4" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:4" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -831,21 +977,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -855,7 +1001,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:4" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -869,65 +1015,87 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:4" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:4" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA25FCA-B498-4627-ABD3-37DE42EA23FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3661EF-371C-42DB-B4CD-51B56627D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -72,13 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戦闘</t>
-    <rPh sb="0" eb="2">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>力、速さ、体力などを選択して育成</t>
     <rPh sb="0" eb="1">
       <t>チカラ</t>
@@ -94,40 +87,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>イクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大会で1対1戦うイメージ。勝ったら次のレベルの相手と対戦。負けたら鍛えなおして出直し</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タタカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイセン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>デナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -273,75 +232,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダメージ計算</t>
-    <rPh sb="4" eb="6">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダメージ数を決める計算式を作成</t>
+    <t>環境確認と共有</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムを作成するにあたり使用するツールを確認、共有する</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラスト決め</t>
     <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターのイラストを決める</t>
+    <rPh sb="11" eb="12">
       <t>キ</t>
     </rPh>
-    <rPh sb="9" eb="12">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の行動パターン決め</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対戦時の敵の行動パターン決め</t>
-    <rPh sb="0" eb="3">
-      <t>タイセンジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション作成</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターン処理</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターンを処理する</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScriptの勉強</t>
+    <rPh sb="11" eb="13">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重森</t>
+    <rPh sb="0" eb="2">
+      <t>シゲモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,11 +383,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -461,6 +424,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +718,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -767,12 +733,12 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -802,23 +768,15 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.9" customHeight="1">
@@ -858,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -874,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="str">
         <f>'スプリントバックログ (第1スプリント)'!C3</f>
@@ -884,63 +842,83 @@
     </row>
     <row r="2" spans="1:4" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
+      <c r="A4" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
@@ -967,6 +945,18 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="39.9" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -980,7 +970,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -993,65 +983,48 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6">
         <f>'スプリントバックログ (第1スプリント)'!C4</f>
-        <v>戦闘</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="39.9" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3661EF-371C-42DB-B4CD-51B56627D712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A757EE-9276-4DDA-B4D4-8E761A589DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -285,6 +285,13 @@
     <t>重森</t>
     <rPh sb="0" eb="2">
       <t>シゲモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -818,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -888,7 +895,9 @@
         <v>15</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -897,7 +906,9 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
@@ -969,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A757EE-9276-4DDA-B4D4-8E761A589DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E895D3-3802-484A-AFFC-3B584FE61F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'スプリントバックログ (第1スプリント)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -299,6 +299,20 @@
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[実施・完了]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -728,13 +742,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -764,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -779,28 +793,28 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -823,21 +837,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -847,7 +863,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -860,8 +876,11 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -874,8 +893,9 @@
       <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -886,8 +906,9 @@
       <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -898,8 +919,9 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -912,8 +934,9 @@
       <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -922,8 +945,9 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -932,42 +956,49 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -978,21 +1009,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.9" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1035,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="39.9" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1015,71 +1048,85 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="39.9" customHeight="1">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E895D3-3802-484A-AFFC-3B584FE61F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD977D1-2AB2-43F1-AB06-7232C1B94B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1452" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -282,20 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重森</t>
-    <rPh sb="0" eb="2">
-      <t>シゲモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
@@ -313,6 +308,68 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッソウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瓜田</t>
+    <rPh sb="0" eb="2">
+      <t>ウリタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重森、内山</t>
+    <rPh sb="0" eb="2">
+      <t>シゲモリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内BGM</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内のBGMの挿入</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,13 +799,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -778,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -793,28 +850,28 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -839,21 +896,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -863,7 +920,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -877,10 +934,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -891,11 +948,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -904,11 +963,13 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -917,11 +978,13 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -932,11 +995,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -944,10 +1009,14 @@
         <v>17</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -956,44 +1025,56 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="39.9" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:5" ht="39.9" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1015,17 +1096,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1116,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1049,79 +1130,79 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="39.9" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD977D1-2AB2-43F1-AB06-7232C1B94B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5256FB9-9276-4F4D-8C05-40454D6FDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1452" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -370,6 +370,53 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成状況を保存するデータベースの作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瓜田、秋枝</t>
+    <rPh sb="0" eb="2">
+      <t>ウリタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム購入</t>
+    <rPh sb="4" eb="6">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育成を行う際に利用するアイテムを購入するシステム</t>
+    <rPh sb="0" eb="2">
+      <t>イクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -796,7 +843,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -894,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -986,16 +1033,14 @@
     </row>
     <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>29</v>
@@ -1003,62 +1048,80 @@
     </row>
     <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
     <row r="11" spans="1:5" ht="39.9" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
@@ -1080,6 +1143,13 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="39.9" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum1_スプリントバックログ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5256FB9-9276-4F4D-8C05-40454D6FDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D313F-098F-41CA-A0A8-09F6F18938B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1452" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20892" windowHeight="10908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -417,6 +417,53 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考（進捗率）</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントはほぼ完成
+バックエンドの作成中</t>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低限の確保は完了
+追加分の素材の収集</t>
+    <rPh sb="0" eb="3">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ツイカブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -941,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -954,10 +1001,11 @@
     <col min="3" max="3" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="24" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.9" customHeight="1">
+    <row r="1" spans="1:6" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -967,7 +1015,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1">
+    <row r="2" spans="1:6" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -983,8 +1031,11 @@
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.9" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1000,8 +1051,9 @@
       <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="39.9" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1015,8 +1067,9 @@
       <c r="E4" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1030,8 +1083,11 @@
       <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1045,8 +1101,11 @@
       <c r="E6" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1062,8 +1121,11 @@
       <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1077,8 +1139,11 @@
       <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1090,8 +1155,9 @@
       <c r="E9" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.9" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -1107,8 +1173,11 @@
       <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.9" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1122,34 +1191,42 @@
       <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.9" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.9" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="39.9" customHeight="1">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.9" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
